--- a/ipl/Punjab Kings/Nathan Ellis.xlsx
+++ b/ipl/Punjab Kings/Nathan Ellis.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -460,9 +460,67 @@
         <v>37th Match (N), Sharjah, September 25, 2021, Indian Premier League</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Nathan Ellis</v>
+      </c>
+      <c r="B3" t="str">
+        <v>6</v>
+      </c>
+      <c r="C3" t="str">
+        <v>4</v>
+      </c>
+      <c r="D3" t="str">
+        <v>0</v>
+      </c>
+      <c r="E3" t="str">
+        <v>0</v>
+      </c>
+      <c r="F3" t="str">
+        <v>150.00</v>
+      </c>
+      <c r="G3" t="str">
+        <v>Mumbai Indians</v>
+      </c>
+      <c r="H3" t="str">
+        <v>Mumbai won by 6 wickets (with 6 balls remaining)</v>
+      </c>
+      <c r="I3" t="str">
+        <v>42nd Match (N), Abu Dhabi, September 28, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Nathan Ellis</v>
+      </c>
+      <c r="B4" t="str">
+        <v>12</v>
+      </c>
+      <c r="C4" t="str">
+        <v>12</v>
+      </c>
+      <c r="D4" t="str">
+        <v>0</v>
+      </c>
+      <c r="E4" t="str">
+        <v>1</v>
+      </c>
+      <c r="F4" t="str">
+        <v>100.00</v>
+      </c>
+      <c r="G4" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="H4" t="str">
+        <v>Punjab Kings won by 5 runs</v>
+      </c>
+      <c r="I4" t="str">
+        <v>37th Match (N), Sharjah, September 25, 2021, Indian Premier League</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I4"/>
   </ignoredErrors>
 </worksheet>
 </file>